--- a/Code/Results/Cases/Case_1_137/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_137/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9042361992860225</v>
+        <v>1.033354359792799</v>
       </c>
       <c r="D2">
-        <v>1.016258691979384</v>
+        <v>1.049318015226544</v>
       </c>
       <c r="E2">
-        <v>0.9209665736276095</v>
+        <v>1.032368160686709</v>
       </c>
       <c r="F2">
-        <v>0.9918115751585858</v>
+        <v>1.054294154009583</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04126475030242</v>
+        <v>1.036834830916368</v>
       </c>
       <c r="J2">
-        <v>0.9297140834525415</v>
+        <v>1.03847954584039</v>
       </c>
       <c r="K2">
-        <v>1.027496070730158</v>
+        <v>1.052075407958449</v>
       </c>
       <c r="L2">
-        <v>0.933649031930687</v>
+        <v>1.035173593154299</v>
       </c>
       <c r="M2">
-        <v>1.00338617894462</v>
+        <v>1.057037761169961</v>
       </c>
       <c r="N2">
-        <v>0.9310343840907396</v>
+        <v>1.039954305910752</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9238190241297761</v>
+        <v>1.036298739072682</v>
       </c>
       <c r="D3">
-        <v>1.023488562203605</v>
+        <v>1.050445439783378</v>
       </c>
       <c r="E3">
-        <v>0.9378750565166042</v>
+        <v>1.034948246063531</v>
       </c>
       <c r="F3">
-        <v>1.002879459168795</v>
+        <v>1.056032302098939</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043824458631576</v>
+        <v>1.037126933458767</v>
       </c>
       <c r="J3">
-        <v>0.9466263036676896</v>
+        <v>1.0410565108731</v>
       </c>
       <c r="K3">
-        <v>1.033829470946368</v>
+        <v>1.053014240461873</v>
       </c>
       <c r="L3">
-        <v>0.9493697976435487</v>
+        <v>1.037557704991747</v>
       </c>
       <c r="M3">
-        <v>1.013475628882279</v>
+        <v>1.058586760831399</v>
       </c>
       <c r="N3">
-        <v>0.9479706215984526</v>
+        <v>1.042534930529391</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9355356441730468</v>
+        <v>1.038191584455844</v>
       </c>
       <c r="D4">
-        <v>1.027877207313904</v>
+        <v>1.051169632098825</v>
       </c>
       <c r="E4">
-        <v>0.9480057775188313</v>
+        <v>1.036606342287089</v>
       </c>
       <c r="F4">
-        <v>1.009568774054623</v>
+        <v>1.057149188867206</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045356794651372</v>
+        <v>1.0373125503112</v>
       </c>
       <c r="J4">
-        <v>0.9567455925049949</v>
+        <v>1.042711968352587</v>
       </c>
       <c r="K4">
-        <v>1.037650429965687</v>
+        <v>1.053615830106688</v>
       </c>
       <c r="L4">
-        <v>0.9587750596968664</v>
+        <v>1.039088774573972</v>
       </c>
       <c r="M4">
-        <v>1.019553068071741</v>
+        <v>1.059580820264786</v>
       </c>
       <c r="N4">
-        <v>0.9581042809866055</v>
+        <v>1.044192738948382</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9402660589439028</v>
+        <v>1.038984461140195</v>
       </c>
       <c r="D5">
-        <v>1.029661502123741</v>
+        <v>1.051472828781523</v>
       </c>
       <c r="E5">
-        <v>0.9520985250638173</v>
+        <v>1.037300752047015</v>
       </c>
       <c r="F5">
-        <v>1.012282753814909</v>
+        <v>1.057616896961679</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045974790157741</v>
+        <v>1.037389779236518</v>
       </c>
       <c r="J5">
-        <v>0.9608306971505927</v>
+        <v>1.043405121845004</v>
       </c>
       <c r="K5">
-        <v>1.039198682267855</v>
+        <v>1.053867347271733</v>
       </c>
       <c r="L5">
-        <v>0.9625715174462444</v>
+        <v>1.039729726461478</v>
       </c>
       <c r="M5">
-        <v>1.022014222437714</v>
+        <v>1.059996785779968</v>
       </c>
       <c r="N5">
-        <v>0.9621951869493679</v>
+        <v>1.044886876798264</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.941049681476458</v>
+        <v>1.039117422434887</v>
       </c>
       <c r="D6">
-        <v>1.029957747145845</v>
+        <v>1.051523663933549</v>
       </c>
       <c r="E6">
-        <v>0.9527766487841056</v>
+        <v>1.037417192980441</v>
       </c>
       <c r="F6">
-        <v>1.012733050305271</v>
+        <v>1.057695320950224</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046077103830114</v>
+        <v>1.037402699369124</v>
       </c>
       <c r="J6">
-        <v>0.9615073825999866</v>
+        <v>1.043521343269362</v>
       </c>
       <c r="K6">
-        <v>1.039455438923194</v>
+        <v>1.053909497131911</v>
       </c>
       <c r="L6">
-        <v>0.9632003628947658</v>
+        <v>1.039837188205095</v>
       </c>
       <c r="M6">
-        <v>1.022422309848214</v>
+        <v>1.060066515699581</v>
       </c>
       <c r="N6">
-        <v>0.9628728333697171</v>
+        <v>1.045003263270376</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9355995815854771</v>
+        <v>1.038202190099738</v>
       </c>
       <c r="D7">
-        <v>1.027901277743652</v>
+        <v>1.051173688325544</v>
       </c>
       <c r="E7">
-        <v>0.9480610865342431</v>
+        <v>1.036615631355324</v>
       </c>
       <c r="F7">
-        <v>1.00960540728281</v>
+        <v>1.057155445548895</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045365151299733</v>
+        <v>1.037313585398072</v>
       </c>
       <c r="J7">
-        <v>0.9568008100127933</v>
+        <v>1.042721241210028</v>
       </c>
       <c r="K7">
-        <v>1.037671336533572</v>
+        <v>1.053619196329779</v>
       </c>
       <c r="L7">
-        <v>0.9588263773570652</v>
+        <v>1.039097349559703</v>
       </c>
       <c r="M7">
-        <v>1.019586306504976</v>
+        <v>1.059586385978218</v>
       </c>
       <c r="N7">
-        <v>0.9581595769095984</v>
+        <v>1.044202024974344</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.911075087660552</v>
+        <v>1.034352038305399</v>
       </c>
       <c r="D8">
-        <v>1.0187679535594</v>
+        <v>1.049700149649811</v>
       </c>
       <c r="E8">
-        <v>0.9268678347355542</v>
+        <v>1.033242515891546</v>
       </c>
       <c r="F8">
-        <v>0.9956600681259552</v>
+        <v>1.054883210363554</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042157878814368</v>
+        <v>1.036934255697857</v>
       </c>
       <c r="J8">
-        <v>0.9356198149893364</v>
+        <v>1.039352975679201</v>
       </c>
       <c r="K8">
-        <v>1.029699563257322</v>
+        <v>1.052393924644659</v>
       </c>
       <c r="L8">
-        <v>0.9391388604897672</v>
+        <v>1.035981761315669</v>
       </c>
       <c r="M8">
-        <v>1.006899149250874</v>
+        <v>1.057562983118039</v>
       </c>
       <c r="N8">
-        <v>0.9369485024437142</v>
+        <v>1.040828976120118</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8583307249994681</v>
+        <v>1.027469004386942</v>
       </c>
       <c r="D9">
-        <v>0.999893893996718</v>
+        <v>1.047061804974451</v>
       </c>
       <c r="E9">
-        <v>0.8814790384907006</v>
+        <v>1.027208057510794</v>
       </c>
       <c r="F9">
-        <v>0.966495570548358</v>
+        <v>1.050817633951864</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035329714141568</v>
+        <v>1.036239479162798</v>
       </c>
       <c r="J9">
-        <v>0.890112450783917</v>
+        <v>1.033322252462636</v>
       </c>
       <c r="K9">
-        <v>1.012988692931348</v>
+        <v>1.050188714999409</v>
       </c>
       <c r="L9">
-        <v>0.8968402763304776</v>
+        <v>1.030399585024821</v>
       </c>
       <c r="M9">
-        <v>0.9801566764583914</v>
+        <v>1.053932620460531</v>
       </c>
       <c r="N9">
-        <v>0.8913765125613553</v>
+        <v>1.034789688584852</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.811221092389548</v>
+        <v>1.022808519849014</v>
       </c>
       <c r="D10">
-        <v>0.9840743948788088</v>
+        <v>1.045273409934123</v>
       </c>
       <c r="E10">
-        <v>0.8412446866490505</v>
+        <v>1.023119396528683</v>
       </c>
       <c r="F10">
-        <v>0.9415843985660196</v>
+        <v>1.048063285465225</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029432863996966</v>
+        <v>1.035758060096534</v>
       </c>
       <c r="J10">
-        <v>0.8496115624256788</v>
+        <v>1.029232753429166</v>
       </c>
       <c r="K10">
-        <v>0.998737270208074</v>
+        <v>1.048686199644139</v>
       </c>
       <c r="L10">
-        <v>0.8592248052521583</v>
+        <v>1.026611656177557</v>
       </c>
       <c r="M10">
-        <v>0.9570950342224566</v>
+        <v>1.051466329870769</v>
       </c>
       <c r="N10">
-        <v>0.8508181082961314</v>
+        <v>1.030694381993682</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.7849062319917506</v>
+        <v>1.020772190595248</v>
       </c>
       <c r="D11">
-        <v>0.9757184502507823</v>
+        <v>1.044491696130852</v>
       </c>
       <c r="E11">
-        <v>0.8189345950366256</v>
+        <v>1.02133229125858</v>
       </c>
       <c r="F11">
-        <v>0.9282075483173251</v>
+        <v>1.046859613534259</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026260940470147</v>
+        <v>1.035545156165216</v>
       </c>
       <c r="J11">
-        <v>0.8270840203795015</v>
+        <v>1.027444474316493</v>
       </c>
       <c r="K11">
-        <v>0.9911132834225108</v>
+        <v>1.048027602408396</v>
       </c>
       <c r="L11">
-        <v>0.8383267641490452</v>
+        <v>1.02495463597778</v>
       </c>
       <c r="M11">
-        <v>0.9446234544840844</v>
+        <v>1.050386920111836</v>
       </c>
       <c r="N11">
-        <v>0.8282585745563033</v>
+        <v>1.028903563319551</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.7735486092800032</v>
+        <v>1.020012946159641</v>
       </c>
       <c r="D12">
-        <v>0.9722255766801087</v>
+        <v>1.044200203625969</v>
       </c>
       <c r="E12">
-        <v>0.809348345633648</v>
+        <v>1.020665878058894</v>
       </c>
       <c r="F12">
-        <v>0.9225633417834163</v>
+        <v>1.04641080938489</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024923631984767</v>
+        <v>1.035465395628221</v>
       </c>
       <c r="J12">
-        <v>0.8173876768244374</v>
+        <v>1.026777501350523</v>
       </c>
       <c r="K12">
-        <v>0.9879049631677727</v>
+        <v>1.04778174090324</v>
       </c>
       <c r="L12">
-        <v>0.8293391893673001</v>
+        <v>1.024336526577068</v>
       </c>
       <c r="M12">
-        <v>0.9393413539287581</v>
+        <v>1.049984204152251</v>
       </c>
       <c r="N12">
-        <v>0.8185484610812052</v>
+        <v>1.028235643175466</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.7760783961208934</v>
+        <v>1.020175937947128</v>
       </c>
       <c r="D13">
-        <v>0.9729975025288211</v>
+        <v>1.044262781321615</v>
       </c>
       <c r="E13">
-        <v>0.8114811864946965</v>
+        <v>1.020808945296387</v>
       </c>
       <c r="F13">
-        <v>0.9238135634184631</v>
+        <v>1.046507157470878</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025219757573994</v>
+        <v>1.035482535412089</v>
       </c>
       <c r="J13">
-        <v>0.8195459192966238</v>
+        <v>1.026920694291116</v>
       </c>
       <c r="K13">
-        <v>0.9886151362092388</v>
+        <v>1.047834535104404</v>
       </c>
       <c r="L13">
-        <v>0.8313392408557606</v>
+        <v>1.024469233116919</v>
       </c>
       <c r="M13">
-        <v>0.9405124246055214</v>
+        <v>1.050070669221841</v>
       </c>
       <c r="N13">
-        <v>0.8207097685052561</v>
+        <v>1.028379039466459</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.7840070258606898</v>
+        <v>1.020709490229021</v>
       </c>
       <c r="D14">
-        <v>0.9754393681297403</v>
+        <v>1.044467624472033</v>
       </c>
       <c r="E14">
-        <v>0.8181746398863947</v>
+        <v>1.021277258993297</v>
       </c>
       <c r="F14">
-        <v>0.9277577727453259</v>
+        <v>1.046822550362143</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026154336333038</v>
+        <v>1.035538577038393</v>
       </c>
       <c r="J14">
-        <v>0.8263157158556059</v>
+        <v>1.027389398316503</v>
       </c>
       <c r="K14">
-        <v>0.9908574164327769</v>
+        <v>1.0480073046566</v>
       </c>
       <c r="L14">
-        <v>0.8376144427430676</v>
+        <v>1.024903596810908</v>
       </c>
       <c r="M14">
-        <v>0.9442029798722333</v>
+        <v>1.050353667985014</v>
       </c>
       <c r="N14">
-        <v>0.8274891789518581</v>
+        <v>1.028848409105324</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.7886469685871658</v>
+        <v>1.021037846921597</v>
       </c>
       <c r="D15">
-        <v>0.9768840919029481</v>
+        <v>1.044593684605029</v>
       </c>
       <c r="E15">
-        <v>0.8220978209719635</v>
+        <v>1.021565454727052</v>
       </c>
       <c r="F15">
-        <v>0.9300839376821816</v>
+        <v>1.047016646612574</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026705730009746</v>
+        <v>1.035573015900813</v>
       </c>
       <c r="J15">
-        <v>0.8302813138029623</v>
+        <v>1.027677818088274</v>
       </c>
       <c r="K15">
-        <v>0.9921810793852367</v>
+        <v>1.048113589965868</v>
       </c>
       <c r="L15">
-        <v>0.8412913963421869</v>
+        <v>1.02517087289947</v>
       </c>
       <c r="M15">
-        <v>0.9463767874135841</v>
+        <v>1.050527796155938</v>
       </c>
       <c r="N15">
-        <v>0.8314604085031606</v>
+        <v>1.029137238466252</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8127997434791833</v>
+        <v>1.022943269219101</v>
       </c>
       <c r="D16">
-        <v>0.9845870371750677</v>
+        <v>1.045325132928852</v>
       </c>
       <c r="E16">
-        <v>0.8425871788674384</v>
+        <v>1.023237641127761</v>
       </c>
       <c r="F16">
-        <v>0.9423997181874527</v>
+        <v>1.048142932686328</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029626204623233</v>
+        <v>1.035772095259059</v>
       </c>
       <c r="J16">
-        <v>0.8509654891234003</v>
+        <v>1.029351058684662</v>
       </c>
       <c r="K16">
-        <v>0.9992027529356995</v>
+        <v>1.048729737729437</v>
       </c>
       <c r="L16">
-        <v>0.8604814642696006</v>
+        <v>1.026721265021373</v>
       </c>
       <c r="M16">
-        <v>0.9578531211068525</v>
+        <v>1.051537720523398</v>
       </c>
       <c r="N16">
-        <v>0.8521739577250615</v>
+        <v>1.030812855256211</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8260686911746586</v>
+        <v>1.024133511562827</v>
       </c>
       <c r="D17">
-        <v>0.9889451478210186</v>
+        <v>1.045781969712469</v>
       </c>
       <c r="E17">
-        <v>0.8538880151801674</v>
+        <v>1.024282025002245</v>
       </c>
       <c r="F17">
-        <v>0.9493078205783403</v>
+        <v>1.048846436004158</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031263888407016</v>
+        <v>1.035895774743208</v>
       </c>
       <c r="J17">
-        <v>0.8623554577983854</v>
+        <v>1.030395885382367</v>
       </c>
       <c r="K17">
-        <v>1.003149825413205</v>
+        <v>1.049114070417987</v>
       </c>
       <c r="L17">
-        <v>0.8710557136125422</v>
+        <v>1.027689217868115</v>
       </c>
       <c r="M17">
-        <v>0.9642671480381629</v>
+        <v>1.05216810918657</v>
       </c>
       <c r="N17">
-        <v>0.8635801014620127</v>
+        <v>1.03185916572767</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8332990971500316</v>
+        <v>1.024826000872471</v>
       </c>
       <c r="D18">
-        <v>0.9913562942024969</v>
+        <v>1.04604772989483</v>
       </c>
       <c r="E18">
-        <v>0.8600581049629946</v>
+        <v>1.024889592873924</v>
       </c>
       <c r="F18">
-        <v>0.9531126871692298</v>
+        <v>1.049255717753121</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032165310759881</v>
+        <v>1.035967486617617</v>
       </c>
       <c r="J18">
-        <v>0.8685689388562867</v>
+        <v>1.031003633431789</v>
       </c>
       <c r="K18">
-        <v>1.005325916156263</v>
+        <v>1.049337475365149</v>
       </c>
       <c r="L18">
-        <v>0.8768259490419236</v>
+        <v>1.02825219158016</v>
       </c>
       <c r="M18">
-        <v>0.9677930058378239</v>
+        <v>1.052534699016821</v>
       </c>
       <c r="N18">
-        <v>0.8698024063757125</v>
+        <v>1.032467776849032</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8356893309627513</v>
+        <v>1.025061826789386</v>
       </c>
       <c r="D19">
-        <v>0.992158903515686</v>
+        <v>1.046138228519874</v>
       </c>
       <c r="E19">
-        <v>0.8620996133502462</v>
+        <v>1.025096488678994</v>
       </c>
       <c r="F19">
-        <v>0.9543766462024391</v>
+        <v>1.049395094011868</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032464628405262</v>
+        <v>1.035991866184955</v>
       </c>
       <c r="J19">
-        <v>0.8706239979710605</v>
+        <v>1.031210577480336</v>
       </c>
       <c r="K19">
-        <v>1.006049092734658</v>
+        <v>1.049413520928482</v>
       </c>
       <c r="L19">
-        <v>0.8787346521334352</v>
+        <v>1.028443879548857</v>
       </c>
       <c r="M19">
-        <v>0.9689632136045772</v>
+        <v>1.052659510674245</v>
       </c>
       <c r="N19">
-        <v>0.8718603839101474</v>
+        <v>1.032675014781864</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8247006069118996</v>
+        <v>1.024005992544761</v>
       </c>
       <c r="D20">
-        <v>0.9884917850229941</v>
+        <v>1.045733028571823</v>
       </c>
       <c r="E20">
-        <v>0.8527214954942877</v>
+        <v>1.024170139043901</v>
       </c>
       <c r="F20">
-        <v>0.9485910710626465</v>
+        <v>1.048771066744346</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031094024572915</v>
+        <v>1.035882549478894</v>
       </c>
       <c r="J20">
-        <v>0.8611803197759198</v>
+        <v>1.030283960006543</v>
       </c>
       <c r="K20">
-        <v>1.002740056638441</v>
+        <v>1.049072914979311</v>
       </c>
       <c r="L20">
-        <v>0.8699645367257403</v>
+        <v>1.027585533572197</v>
       </c>
       <c r="M20">
-        <v>0.9636024146793584</v>
+        <v>1.052100589115696</v>
       </c>
       <c r="N20">
-        <v>0.862403294608765</v>
+        <v>1.031747081404974</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.7817261182235694</v>
+        <v>1.020552452262233</v>
       </c>
       <c r="D21">
-        <v>0.9747334058080143</v>
+        <v>1.044407334673143</v>
       </c>
       <c r="E21">
-        <v>0.8162477069022314</v>
+        <v>1.021139424910418</v>
       </c>
       <c r="F21">
-        <v>0.9266191114146627</v>
+        <v>1.04672972254958</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0258844803742</v>
+        <v>1.035522092993287</v>
       </c>
       <c r="J21">
-        <v>0.8243673235179063</v>
+        <v>1.027251452723354</v>
       </c>
       <c r="K21">
-        <v>0.9902098110416794</v>
+        <v>1.047956462485685</v>
       </c>
       <c r="L21">
-        <v>0.8358081547985102</v>
+        <v>1.024775760551016</v>
       </c>
       <c r="M21">
-        <v>0.9431381559446712</v>
+        <v>1.050270381304316</v>
       </c>
       <c r="N21">
-        <v>0.8255380196735553</v>
+        <v>1.02871026761361</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.7440303281034083</v>
+        <v>1.018364464108368</v>
       </c>
       <c r="D22">
-        <v>0.9634825570892095</v>
+        <v>1.04356727047796</v>
       </c>
       <c r="E22">
-        <v>0.7845711866740657</v>
+        <v>1.019218786766936</v>
       </c>
       <c r="F22">
-        <v>0.9082808207964194</v>
+        <v>1.0454363470848</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021546345490895</v>
+        <v>1.035291528444112</v>
       </c>
       <c r="J22">
-        <v>0.7922749487206547</v>
+        <v>1.025328970187953</v>
       </c>
       <c r="K22">
-        <v>0.9798138835670115</v>
+        <v>1.047247378688485</v>
       </c>
       <c r="L22">
-        <v>0.8060876687707956</v>
+        <v>1.022993948999581</v>
       </c>
       <c r="M22">
-        <v>0.9259180130824102</v>
+        <v>1.049109361506008</v>
       </c>
       <c r="N22">
-        <v>0.7934000700230449</v>
+        <v>1.026785054932497</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.7656431215807522</v>
+        <v>1.019525970179093</v>
       </c>
       <c r="D23">
-        <v>0.9698360563718195</v>
+        <v>1.044013234758958</v>
       </c>
       <c r="E23">
-        <v>0.8026924600147818</v>
+        <v>1.020238418044732</v>
       </c>
       <c r="F23">
-        <v>0.9186826020424806</v>
+        <v>1.046122945843247</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024004869651177</v>
+        <v>1.035414131309034</v>
       </c>
       <c r="J23">
-        <v>0.8106490897017987</v>
+        <v>1.026349647828505</v>
       </c>
       <c r="K23">
-        <v>0.9857024186373524</v>
+        <v>1.047623962271705</v>
       </c>
       <c r="L23">
-        <v>0.823096200138358</v>
+        <v>1.023939992456208</v>
       </c>
       <c r="M23">
-        <v>0.9357023758643974</v>
+        <v>1.049725832663169</v>
       </c>
       <c r="N23">
-        <v>0.8118003043919253</v>
+        <v>1.027807182052372</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8253203208793525</v>
+        <v>1.024063618328801</v>
       </c>
       <c r="D24">
-        <v>0.9886970356239536</v>
+        <v>1.045755145143714</v>
       </c>
       <c r="E24">
-        <v>0.8532498672179877</v>
+        <v>1.02422070044206</v>
       </c>
       <c r="F24">
-        <v>0.9489156174175085</v>
+        <v>1.048805126140904</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031170941385063</v>
+        <v>1.035888526729426</v>
       </c>
       <c r="J24">
-        <v>0.8617126115877918</v>
+        <v>1.030334539457011</v>
       </c>
       <c r="K24">
-        <v>1.002925594731245</v>
+        <v>1.049091513727896</v>
       </c>
       <c r="L24">
-        <v>0.8704587920396186</v>
+        <v>1.027632389033277</v>
       </c>
       <c r="M24">
-        <v>0.9639034293829415</v>
+        <v>1.052131101941924</v>
       </c>
       <c r="N24">
-        <v>0.8629363423360644</v>
+        <v>1.031797732684063</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.8734940641395068</v>
+        <v>1.029260674468599</v>
       </c>
       <c r="D25">
-        <v>1.005202718432239</v>
+        <v>1.047748974081343</v>
       </c>
       <c r="E25">
-        <v>0.8944960269229247</v>
+        <v>1.028779329902022</v>
       </c>
       <c r="F25">
-        <v>0.9747528605737384</v>
+        <v>1.051876241332486</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037274809212986</v>
+        <v>1.036422270580446</v>
       </c>
       <c r="J25">
-        <v>0.9031830436433947</v>
+        <v>1.034893138791115</v>
       </c>
       <c r="K25">
-        <v>1.017720802231517</v>
+        <v>1.050764418637512</v>
       </c>
       <c r="L25">
-        <v>0.9089874220397761</v>
+        <v>1.03185408786116</v>
       </c>
       <c r="M25">
-        <v>0.9877561719801472</v>
+        <v>1.054879090106424</v>
       </c>
       <c r="N25">
-        <v>0.9044656671619113</v>
+        <v>1.036362805752101</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_137/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_137/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033354359792799</v>
+        <v>0.9042361992860224</v>
       </c>
       <c r="D2">
-        <v>1.049318015226544</v>
+        <v>1.016258691979384</v>
       </c>
       <c r="E2">
-        <v>1.032368160686709</v>
+        <v>0.920966573627609</v>
       </c>
       <c r="F2">
-        <v>1.054294154009583</v>
+        <v>0.9918115751585861</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036834830916368</v>
+        <v>1.04126475030242</v>
       </c>
       <c r="J2">
-        <v>1.03847954584039</v>
+        <v>0.9297140834525414</v>
       </c>
       <c r="K2">
-        <v>1.052075407958449</v>
+        <v>1.027496070730159</v>
       </c>
       <c r="L2">
-        <v>1.035173593154299</v>
+        <v>0.9336490319306866</v>
       </c>
       <c r="M2">
-        <v>1.057037761169961</v>
+        <v>1.00338617894462</v>
       </c>
       <c r="N2">
-        <v>1.039954305910752</v>
+        <v>0.9310343840907397</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036298739072682</v>
+        <v>0.9238190241297752</v>
       </c>
       <c r="D3">
-        <v>1.050445439783378</v>
+        <v>1.023488562203605</v>
       </c>
       <c r="E3">
-        <v>1.034948246063531</v>
+        <v>0.9378750565166029</v>
       </c>
       <c r="F3">
-        <v>1.056032302098939</v>
+        <v>1.002879459168794</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037126933458767</v>
+        <v>1.043824458631576</v>
       </c>
       <c r="J3">
-        <v>1.0410565108731</v>
+        <v>0.9466263036676887</v>
       </c>
       <c r="K3">
-        <v>1.053014240461873</v>
+        <v>1.033829470946368</v>
       </c>
       <c r="L3">
-        <v>1.037557704991747</v>
+        <v>0.9493697976435475</v>
       </c>
       <c r="M3">
-        <v>1.058586760831399</v>
+        <v>1.013475628882279</v>
       </c>
       <c r="N3">
-        <v>1.042534930529391</v>
+        <v>0.9479706215984514</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038191584455844</v>
+        <v>0.9355356441730457</v>
       </c>
       <c r="D4">
-        <v>1.051169632098825</v>
+        <v>1.027877207313904</v>
       </c>
       <c r="E4">
-        <v>1.036606342287089</v>
+        <v>0.9480057775188306</v>
       </c>
       <c r="F4">
-        <v>1.057149188867206</v>
+        <v>1.009568774054622</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0373125503112</v>
+        <v>1.045356794651372</v>
       </c>
       <c r="J4">
-        <v>1.042711968352587</v>
+        <v>0.9567455925049939</v>
       </c>
       <c r="K4">
-        <v>1.053615830106688</v>
+        <v>1.037650429965687</v>
       </c>
       <c r="L4">
-        <v>1.039088774573972</v>
+        <v>0.9587750596968656</v>
       </c>
       <c r="M4">
-        <v>1.059580820264786</v>
+        <v>1.019553068071741</v>
       </c>
       <c r="N4">
-        <v>1.044192738948382</v>
+        <v>0.9581042809866046</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038984461140195</v>
+        <v>0.940266058943905</v>
       </c>
       <c r="D5">
-        <v>1.051472828781523</v>
+        <v>1.029661502123742</v>
       </c>
       <c r="E5">
-        <v>1.037300752047015</v>
+        <v>0.9520985250638191</v>
       </c>
       <c r="F5">
-        <v>1.057616896961679</v>
+        <v>1.01228275381491</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037389779236518</v>
+        <v>1.045974790157741</v>
       </c>
       <c r="J5">
-        <v>1.043405121845004</v>
+        <v>0.9608306971505945</v>
       </c>
       <c r="K5">
-        <v>1.053867347271733</v>
+        <v>1.039198682267855</v>
       </c>
       <c r="L5">
-        <v>1.039729726461478</v>
+        <v>0.9625715174462461</v>
       </c>
       <c r="M5">
-        <v>1.059996785779968</v>
+        <v>1.022014222437715</v>
       </c>
       <c r="N5">
-        <v>1.044886876798264</v>
+        <v>0.96219518694937</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039117422434887</v>
+        <v>0.941049681476458</v>
       </c>
       <c r="D6">
-        <v>1.051523663933549</v>
+        <v>1.029957747145846</v>
       </c>
       <c r="E6">
-        <v>1.037417192980441</v>
+        <v>0.9527766487841056</v>
       </c>
       <c r="F6">
-        <v>1.057695320950224</v>
+        <v>1.012733050305271</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037402699369124</v>
+        <v>1.046077103830114</v>
       </c>
       <c r="J6">
-        <v>1.043521343269362</v>
+        <v>0.9615073825999868</v>
       </c>
       <c r="K6">
-        <v>1.053909497131911</v>
+        <v>1.039455438923194</v>
       </c>
       <c r="L6">
-        <v>1.039837188205095</v>
+        <v>0.9632003628947657</v>
       </c>
       <c r="M6">
-        <v>1.060066515699581</v>
+        <v>1.022422309848215</v>
       </c>
       <c r="N6">
-        <v>1.045003263270376</v>
+        <v>0.9628728333697173</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038202190099738</v>
+        <v>0.9355995815854763</v>
       </c>
       <c r="D7">
-        <v>1.051173688325544</v>
+        <v>1.027901277743652</v>
       </c>
       <c r="E7">
-        <v>1.036615631355324</v>
+        <v>0.9480610865342423</v>
       </c>
       <c r="F7">
-        <v>1.057155445548895</v>
+        <v>1.00960540728281</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037313585398072</v>
+        <v>1.045365151299733</v>
       </c>
       <c r="J7">
-        <v>1.042721241210028</v>
+        <v>0.9568008100127926</v>
       </c>
       <c r="K7">
-        <v>1.053619196329779</v>
+        <v>1.037671336533572</v>
       </c>
       <c r="L7">
-        <v>1.039097349559703</v>
+        <v>0.9588263773570643</v>
       </c>
       <c r="M7">
-        <v>1.059586385978218</v>
+        <v>1.019586306504976</v>
       </c>
       <c r="N7">
-        <v>1.044202024974344</v>
+        <v>0.9581595769095977</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034352038305399</v>
+        <v>0.9110750876605523</v>
       </c>
       <c r="D8">
-        <v>1.049700149649811</v>
+        <v>1.018767953559401</v>
       </c>
       <c r="E8">
-        <v>1.033242515891546</v>
+        <v>0.9268678347355545</v>
       </c>
       <c r="F8">
-        <v>1.054883210363554</v>
+        <v>0.9956600681259559</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036934255697857</v>
+        <v>1.042157878814368</v>
       </c>
       <c r="J8">
-        <v>1.039352975679201</v>
+        <v>0.935619814989337</v>
       </c>
       <c r="K8">
-        <v>1.052393924644659</v>
+        <v>1.029699563257323</v>
       </c>
       <c r="L8">
-        <v>1.035981761315669</v>
+        <v>0.9391388604897676</v>
       </c>
       <c r="M8">
-        <v>1.057562983118039</v>
+        <v>1.006899149250875</v>
       </c>
       <c r="N8">
-        <v>1.040828976120118</v>
+        <v>0.9369485024437146</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027469004386942</v>
+        <v>0.8583307249994699</v>
       </c>
       <c r="D9">
-        <v>1.047061804974451</v>
+        <v>0.9998938939967195</v>
       </c>
       <c r="E9">
-        <v>1.027208057510794</v>
+        <v>0.8814790384907021</v>
       </c>
       <c r="F9">
-        <v>1.050817633951864</v>
+        <v>0.9664955705483589</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036239479162798</v>
+        <v>1.035329714141568</v>
       </c>
       <c r="J9">
-        <v>1.033322252462636</v>
+        <v>0.8901124507839185</v>
       </c>
       <c r="K9">
-        <v>1.050188714999409</v>
+        <v>1.012988692931349</v>
       </c>
       <c r="L9">
-        <v>1.030399585024821</v>
+        <v>0.8968402763304791</v>
       </c>
       <c r="M9">
-        <v>1.053932620460531</v>
+        <v>0.9801566764583927</v>
       </c>
       <c r="N9">
-        <v>1.034789688584852</v>
+        <v>0.8913765125613569</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022808519849014</v>
+        <v>0.8112210923895486</v>
       </c>
       <c r="D10">
-        <v>1.045273409934123</v>
+        <v>0.9840743948788082</v>
       </c>
       <c r="E10">
-        <v>1.023119396528683</v>
+        <v>0.8412446866490511</v>
       </c>
       <c r="F10">
-        <v>1.048063285465225</v>
+        <v>0.9415843985660186</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035758060096534</v>
+        <v>1.029432863996966</v>
       </c>
       <c r="J10">
-        <v>1.029232753429166</v>
+        <v>0.8496115624256794</v>
       </c>
       <c r="K10">
-        <v>1.048686199644139</v>
+        <v>0.9987372702080735</v>
       </c>
       <c r="L10">
-        <v>1.026611656177557</v>
+        <v>0.8592248052521589</v>
       </c>
       <c r="M10">
-        <v>1.051466329870769</v>
+        <v>0.9570950342224558</v>
       </c>
       <c r="N10">
-        <v>1.030694381993682</v>
+        <v>0.8508181082961321</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020772190595248</v>
+        <v>0.7849062319917506</v>
       </c>
       <c r="D11">
-        <v>1.044491696130852</v>
+        <v>0.9757184502507825</v>
       </c>
       <c r="E11">
-        <v>1.02133229125858</v>
+        <v>0.8189345950366255</v>
       </c>
       <c r="F11">
-        <v>1.046859613534259</v>
+        <v>0.9282075483173253</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035545156165216</v>
+        <v>1.026260940470147</v>
       </c>
       <c r="J11">
-        <v>1.027444474316493</v>
+        <v>0.8270840203795012</v>
       </c>
       <c r="K11">
-        <v>1.048027602408396</v>
+        <v>0.991113283422511</v>
       </c>
       <c r="L11">
-        <v>1.02495463597778</v>
+        <v>0.8383267641490453</v>
       </c>
       <c r="M11">
-        <v>1.050386920111836</v>
+        <v>0.9446234544840848</v>
       </c>
       <c r="N11">
-        <v>1.028903563319551</v>
+        <v>0.8282585745563033</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020012946159641</v>
+        <v>0.7735486092800048</v>
       </c>
       <c r="D12">
-        <v>1.044200203625969</v>
+        <v>0.9722255766801092</v>
       </c>
       <c r="E12">
-        <v>1.020665878058894</v>
+        <v>0.8093483456336494</v>
       </c>
       <c r="F12">
-        <v>1.04641080938489</v>
+        <v>0.9225633417834171</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035465395628221</v>
+        <v>1.024923631984767</v>
       </c>
       <c r="J12">
-        <v>1.026777501350523</v>
+        <v>0.8173876768244389</v>
       </c>
       <c r="K12">
-        <v>1.04778174090324</v>
+        <v>0.9879049631677732</v>
       </c>
       <c r="L12">
-        <v>1.024336526577068</v>
+        <v>0.8293391893673012</v>
       </c>
       <c r="M12">
-        <v>1.049984204152251</v>
+        <v>0.9393413539287589</v>
       </c>
       <c r="N12">
-        <v>1.028235643175466</v>
+        <v>0.8185484610812066</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020175937947128</v>
+        <v>0.7760783961208958</v>
       </c>
       <c r="D13">
-        <v>1.044262781321615</v>
+        <v>0.9729975025288216</v>
       </c>
       <c r="E13">
-        <v>1.020808945296387</v>
+        <v>0.8114811864946985</v>
       </c>
       <c r="F13">
-        <v>1.046507157470878</v>
+        <v>0.9238135634184641</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035482535412089</v>
+        <v>1.025219757573994</v>
       </c>
       <c r="J13">
-        <v>1.026920694291116</v>
+        <v>0.8195459192966258</v>
       </c>
       <c r="K13">
-        <v>1.047834535104404</v>
+        <v>0.9886151362092391</v>
       </c>
       <c r="L13">
-        <v>1.024469233116919</v>
+        <v>0.8313392408557625</v>
       </c>
       <c r="M13">
-        <v>1.050070669221841</v>
+        <v>0.9405124246055224</v>
       </c>
       <c r="N13">
-        <v>1.028379039466459</v>
+        <v>0.8207097685052579</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020709490229021</v>
+        <v>0.7840070258606908</v>
       </c>
       <c r="D14">
-        <v>1.044467624472033</v>
+        <v>0.9754393681297403</v>
       </c>
       <c r="E14">
-        <v>1.021277258993297</v>
+        <v>0.8181746398863956</v>
       </c>
       <c r="F14">
-        <v>1.046822550362143</v>
+        <v>0.9277577727453259</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035538577038393</v>
+        <v>1.026154336333038</v>
       </c>
       <c r="J14">
-        <v>1.027389398316503</v>
+        <v>0.8263157158556066</v>
       </c>
       <c r="K14">
-        <v>1.0480073046566</v>
+        <v>0.9908574164327766</v>
       </c>
       <c r="L14">
-        <v>1.024903596810908</v>
+        <v>0.8376144427430683</v>
       </c>
       <c r="M14">
-        <v>1.050353667985014</v>
+        <v>0.9442029798722332</v>
       </c>
       <c r="N14">
-        <v>1.028848409105324</v>
+        <v>0.827489178951859</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021037846921597</v>
+        <v>0.78864696858717</v>
       </c>
       <c r="D15">
-        <v>1.044593684605029</v>
+        <v>0.9768840919029499</v>
       </c>
       <c r="E15">
-        <v>1.021565454727052</v>
+        <v>0.8220978209719674</v>
       </c>
       <c r="F15">
-        <v>1.047016646612574</v>
+        <v>0.930083937682184</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035573015900813</v>
+        <v>1.026705730009746</v>
       </c>
       <c r="J15">
-        <v>1.027677818088274</v>
+        <v>0.8302813138029667</v>
       </c>
       <c r="K15">
-        <v>1.048113589965868</v>
+        <v>0.9921810793852384</v>
       </c>
       <c r="L15">
-        <v>1.02517087289947</v>
+        <v>0.8412913963421907</v>
       </c>
       <c r="M15">
-        <v>1.050527796155938</v>
+        <v>0.9463767874135864</v>
       </c>
       <c r="N15">
-        <v>1.029137238466252</v>
+        <v>0.8314604085031648</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.022943269219101</v>
+        <v>0.8127997434791832</v>
       </c>
       <c r="D16">
-        <v>1.045325132928852</v>
+        <v>0.9845870371750677</v>
       </c>
       <c r="E16">
-        <v>1.023237641127761</v>
+        <v>0.8425871788674383</v>
       </c>
       <c r="F16">
-        <v>1.048142932686328</v>
+        <v>0.9423997181874524</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035772095259059</v>
+        <v>1.029626204623233</v>
       </c>
       <c r="J16">
-        <v>1.029351058684662</v>
+        <v>0.8509654891234002</v>
       </c>
       <c r="K16">
-        <v>1.048729737729437</v>
+        <v>0.9992027529356994</v>
       </c>
       <c r="L16">
-        <v>1.026721265021373</v>
+        <v>0.8604814642696004</v>
       </c>
       <c r="M16">
-        <v>1.051537720523398</v>
+        <v>0.9578531211068522</v>
       </c>
       <c r="N16">
-        <v>1.030812855256211</v>
+        <v>0.8521739577250614</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024133511562827</v>
+        <v>0.8260686911746565</v>
       </c>
       <c r="D17">
-        <v>1.045781969712469</v>
+        <v>0.9889451478210176</v>
       </c>
       <c r="E17">
-        <v>1.024282025002245</v>
+        <v>0.8538880151801654</v>
       </c>
       <c r="F17">
-        <v>1.048846436004158</v>
+        <v>0.9493078205783393</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035895774743208</v>
+        <v>1.031263888407016</v>
       </c>
       <c r="J17">
-        <v>1.030395885382367</v>
+        <v>0.8623554577983836</v>
       </c>
       <c r="K17">
-        <v>1.049114070417987</v>
+        <v>1.003149825413205</v>
       </c>
       <c r="L17">
-        <v>1.027689217868115</v>
+        <v>0.8710557136125404</v>
       </c>
       <c r="M17">
-        <v>1.05216810918657</v>
+        <v>0.9642671480381618</v>
       </c>
       <c r="N17">
-        <v>1.03185916572767</v>
+        <v>0.8635801014620108</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024826000872471</v>
+        <v>0.8332990971500309</v>
       </c>
       <c r="D18">
-        <v>1.04604772989483</v>
+        <v>0.9913562942024968</v>
       </c>
       <c r="E18">
-        <v>1.024889592873924</v>
+        <v>0.8600581049629941</v>
       </c>
       <c r="F18">
-        <v>1.049255717753121</v>
+        <v>0.9531126871692296</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035967486617617</v>
+        <v>1.032165310759881</v>
       </c>
       <c r="J18">
-        <v>1.031003633431789</v>
+        <v>0.8685689388562861</v>
       </c>
       <c r="K18">
-        <v>1.049337475365149</v>
+        <v>1.005325916156263</v>
       </c>
       <c r="L18">
-        <v>1.02825219158016</v>
+        <v>0.8768259490419228</v>
       </c>
       <c r="M18">
-        <v>1.052534699016821</v>
+        <v>0.9677930058378239</v>
       </c>
       <c r="N18">
-        <v>1.032467776849032</v>
+        <v>0.869802406375712</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025061826789386</v>
+        <v>0.8356893309627514</v>
       </c>
       <c r="D19">
-        <v>1.046138228519874</v>
+        <v>0.9921589035156859</v>
       </c>
       <c r="E19">
-        <v>1.025096488678994</v>
+        <v>0.8620996133502464</v>
       </c>
       <c r="F19">
-        <v>1.049395094011868</v>
+        <v>0.9543766462024386</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035991866184955</v>
+        <v>1.032464628405262</v>
       </c>
       <c r="J19">
-        <v>1.031210577480336</v>
+        <v>0.8706239979710604</v>
       </c>
       <c r="K19">
-        <v>1.049413520928482</v>
+        <v>1.006049092734658</v>
       </c>
       <c r="L19">
-        <v>1.028443879548857</v>
+        <v>0.8787346521334354</v>
       </c>
       <c r="M19">
-        <v>1.052659510674245</v>
+        <v>0.9689632136045767</v>
       </c>
       <c r="N19">
-        <v>1.032675014781864</v>
+        <v>0.8718603839101478</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024005992544761</v>
+        <v>0.8247006069118985</v>
       </c>
       <c r="D20">
-        <v>1.045733028571823</v>
+        <v>0.9884917850229934</v>
       </c>
       <c r="E20">
-        <v>1.024170139043901</v>
+        <v>0.8527214954942869</v>
       </c>
       <c r="F20">
-        <v>1.048771066744346</v>
+        <v>0.9485910710626456</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035882549478894</v>
+        <v>1.031094024572915</v>
       </c>
       <c r="J20">
-        <v>1.030283960006543</v>
+        <v>0.861180319775919</v>
       </c>
       <c r="K20">
-        <v>1.049072914979311</v>
+        <v>1.00274005663844</v>
       </c>
       <c r="L20">
-        <v>1.027585533572197</v>
+        <v>0.8699645367257393</v>
       </c>
       <c r="M20">
-        <v>1.052100589115696</v>
+        <v>0.9636024146793575</v>
       </c>
       <c r="N20">
-        <v>1.031747081404974</v>
+        <v>0.8624032946087641</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020552452262233</v>
+        <v>0.7817261182235701</v>
       </c>
       <c r="D21">
-        <v>1.044407334673143</v>
+        <v>0.974733405808014</v>
       </c>
       <c r="E21">
-        <v>1.021139424910418</v>
+        <v>0.8162477069022323</v>
       </c>
       <c r="F21">
-        <v>1.04672972254958</v>
+        <v>0.9266191114146629</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035522092993287</v>
+        <v>1.0258844803742</v>
       </c>
       <c r="J21">
-        <v>1.027251452723354</v>
+        <v>0.8243673235179071</v>
       </c>
       <c r="K21">
-        <v>1.047956462485685</v>
+        <v>0.9902098110416792</v>
       </c>
       <c r="L21">
-        <v>1.024775760551016</v>
+        <v>0.8358081547985111</v>
       </c>
       <c r="M21">
-        <v>1.050270381304316</v>
+        <v>0.9431381559446713</v>
       </c>
       <c r="N21">
-        <v>1.02871026761361</v>
+        <v>0.825538019673556</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018364464108368</v>
+        <v>0.7440303281034013</v>
       </c>
       <c r="D22">
-        <v>1.04356727047796</v>
+        <v>0.9634825570892073</v>
       </c>
       <c r="E22">
-        <v>1.019218786766936</v>
+        <v>0.7845711866740597</v>
       </c>
       <c r="F22">
-        <v>1.0454363470848</v>
+        <v>0.9082808207964157</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035291528444112</v>
+        <v>1.021546345490894</v>
       </c>
       <c r="J22">
-        <v>1.025328970187953</v>
+        <v>0.7922749487206486</v>
       </c>
       <c r="K22">
-        <v>1.047247378688485</v>
+        <v>0.9798138835670093</v>
       </c>
       <c r="L22">
-        <v>1.022993948999581</v>
+        <v>0.80608766877079</v>
       </c>
       <c r="M22">
-        <v>1.049109361506008</v>
+        <v>0.925918013082407</v>
       </c>
       <c r="N22">
-        <v>1.026785054932497</v>
+        <v>0.7934000700230388</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.019525970179093</v>
+        <v>0.7656431215807513</v>
       </c>
       <c r="D23">
-        <v>1.044013234758958</v>
+        <v>0.9698360563718189</v>
       </c>
       <c r="E23">
-        <v>1.020238418044732</v>
+        <v>0.8026924600147808</v>
       </c>
       <c r="F23">
-        <v>1.046122945843247</v>
+        <v>0.91868260204248</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035414131309034</v>
+        <v>1.024004869651177</v>
       </c>
       <c r="J23">
-        <v>1.026349647828505</v>
+        <v>0.8106490897017977</v>
       </c>
       <c r="K23">
-        <v>1.047623962271705</v>
+        <v>0.9857024186373521</v>
       </c>
       <c r="L23">
-        <v>1.023939992456208</v>
+        <v>0.823096200138357</v>
       </c>
       <c r="M23">
-        <v>1.049725832663169</v>
+        <v>0.9357023758643969</v>
       </c>
       <c r="N23">
-        <v>1.027807182052372</v>
+        <v>0.8118003043919245</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024063618328801</v>
+        <v>0.8253203208793539</v>
       </c>
       <c r="D24">
-        <v>1.045755145143714</v>
+        <v>0.9886970356239541</v>
       </c>
       <c r="E24">
-        <v>1.02422070044206</v>
+        <v>0.8532498672179887</v>
       </c>
       <c r="F24">
-        <v>1.048805126140904</v>
+        <v>0.9489156174175092</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035888526729426</v>
+        <v>1.031170941385064</v>
       </c>
       <c r="J24">
-        <v>1.030334539457011</v>
+        <v>0.8617126115877929</v>
       </c>
       <c r="K24">
-        <v>1.049091513727896</v>
+        <v>1.002925594731245</v>
       </c>
       <c r="L24">
-        <v>1.027632389033277</v>
+        <v>0.8704587920396196</v>
       </c>
       <c r="M24">
-        <v>1.052131101941924</v>
+        <v>0.9639034293829419</v>
       </c>
       <c r="N24">
-        <v>1.031797732684063</v>
+        <v>0.8629363423360656</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029260674468599</v>
+        <v>0.8734940641395053</v>
       </c>
       <c r="D25">
-        <v>1.047748974081343</v>
+        <v>1.005202718432239</v>
       </c>
       <c r="E25">
-        <v>1.028779329902022</v>
+        <v>0.8944960269229237</v>
       </c>
       <c r="F25">
-        <v>1.051876241332486</v>
+        <v>0.9747528605737381</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036422270580446</v>
+        <v>1.037274809212986</v>
       </c>
       <c r="J25">
-        <v>1.034893138791115</v>
+        <v>0.9031830436433934</v>
       </c>
       <c r="K25">
-        <v>1.050764418637512</v>
+        <v>1.017720802231517</v>
       </c>
       <c r="L25">
-        <v>1.03185408786116</v>
+        <v>0.9089874220397749</v>
       </c>
       <c r="M25">
-        <v>1.054879090106424</v>
+        <v>0.9877561719801469</v>
       </c>
       <c r="N25">
-        <v>1.036362805752101</v>
+        <v>0.9044656671619101</v>
       </c>
     </row>
   </sheetData>
